--- a/mobile/src/main/resources/Sanity.xlsx
+++ b/mobile/src/main/resources/Sanity.xlsx
@@ -9,22 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseMaster" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
   <si>
     <t>TCID</t>
   </si>
@@ -50,22 +50,154 @@
     <t>1</t>
   </si>
   <si>
-    <t>TC_01</t>
+    <t>attendance</t>
+  </si>
+  <si>
+    <t>com.darwinbox.mobile.attendance.AttendanceSummaryTest</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>attendance</t>
+    <t>Checking Attendance View API</t>
+  </si>
+  <si>
+    <t>Checking Attendance Summary API</t>
+  </si>
+  <si>
+    <t>com.darwinbox.mobile.attendance.AttendanceViewTest</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>com.darwinbox.mobile.attendance.AttendanceRequestLocationTest</t>
+  </si>
+  <si>
+    <t>com.darwinbox.mobile.attendance.AttendanceCheckInDataTest</t>
   </si>
   <si>
     <t>Checking Attendance Request Location API</t>
   </si>
   <si>
-    <t>com.darwinbox.mobile.attendance.AttendanceRequestLocationTest</t>
+    <t>Checking Attendance Check-IN Data API</t>
+  </si>
+  <si>
+    <t>AttendanceViewTest</t>
+  </si>
+  <si>
+    <t>AttendanceCheckINDataTest</t>
   </si>
   <si>
     <t>attendance/attendance_TestData.xlsx</t>
+  </si>
+  <si>
+    <t>AttendanceSummaryTest</t>
+  </si>
+  <si>
+    <t>AttendanceRequestLocationTest</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>login/login_TestData.xlsx</t>
+  </si>
+  <si>
+    <t>Checking when username and password is invalid</t>
+  </si>
+  <si>
+    <t>Checking when username is invalid</t>
+  </si>
+  <si>
+    <t>Checking when password is invalid</t>
+  </si>
+  <si>
+    <t>Checking when username and password is valid</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>AuthLoginTest</t>
+  </si>
+  <si>
+    <t>Checking when mobile app is not allowed</t>
+  </si>
+  <si>
+    <t>Auth Login</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>com.darwinbox.mobile.login.MobileAuthLoginTest</t>
+  </si>
+  <si>
+    <t>SendOTPTest</t>
+  </si>
+  <si>
+    <t>OTP Login</t>
+  </si>
+  <si>
+    <t>Checking send OTP when mobile number is not enabled for OTP</t>
+  </si>
+  <si>
+    <t>Checking send OTP when mobile number is enabled for OTP</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>com.darwinbox.mobile.helpdesk.HelpdeskCategoryList</t>
+  </si>
+  <si>
+    <t>CategoryList</t>
+  </si>
+  <si>
+    <t>helpdesk/helpdesk_TestData.xlsx</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Helpdesk</t>
+  </si>
+  <si>
+    <t>All APIs</t>
+  </si>
+  <si>
+    <t>Checking Category List Status</t>
+  </si>
+  <si>
+    <t>com.darwinbox.mobile.allAPIs.AllApiStatusCheckTest</t>
+  </si>
+  <si>
+    <t>allAPI_StatusCheck/allAPI_StatusCheck_TestData.xlsx</t>
+  </si>
+  <si>
+    <t>Verifying Auth Login API</t>
+  </si>
+  <si>
+    <t>All_APIs</t>
+  </si>
+  <si>
+    <t>3,5-7,14,18,20-22,28-31,34,36,39,41,44,46,47</t>
   </si>
 </sst>
 </file>
@@ -74,10 +206,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,9 +233,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,24 +517,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="49.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="7" width="11.5703125"/>
-    <col min="8" max="1023" width="8.5703125" customWidth="1"/>
-    <col min="1024" max="1025" width="11.5703125"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.7109375" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,38 +557,307 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mobile/src/main/resources/Sanity.xlsx
+++ b/mobile/src/main/resources/Sanity.xlsx
@@ -194,10 +194,10 @@
     <t>Verifying Auth Login API</t>
   </si>
   <si>
-    <t>All_APIs</t>
-  </si>
-  <si>
-    <t>3,5-7,14,18,20-22,28-31,34,36,39,41,44,46,47</t>
+    <t>test2_instance</t>
+  </si>
+  <si>
+    <t>1-5,7,9,11-12,14-15,18,20-23,27-40,42,44-48,50,51</t>
   </si>
 </sst>
 </file>
@@ -519,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,7 +852,7 @@
       <c r="F14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>57</v>
       </c>
     </row>

--- a/mobile/src/main/resources/Sanity.xlsx
+++ b/mobile/src/main/resources/Sanity.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
   <si>
     <t>TCID</t>
   </si>
@@ -188,16 +188,16 @@
     <t>com.darwinbox.mobile.allAPIs.AllApiStatusCheckTest</t>
   </si>
   <si>
+    <t>Verifying Auth Login API</t>
+  </si>
+  <si>
     <t>allAPI_StatusCheck/allAPI_StatusCheck_TestData.xlsx</t>
   </si>
   <si>
-    <t>Verifying Auth Login API</t>
-  </si>
-  <si>
-    <t>test2_instance</t>
-  </si>
-  <si>
-    <t>1-5,7,9,11-12,14-15,18,20-23,27-40,42,44-48,50,51</t>
+    <t>wild1_instance</t>
+  </si>
+  <si>
+    <t>1-10,12-16,20-37,39-43,46-54,56-60,62-63</t>
   </si>
 </sst>
 </file>
@@ -517,9 +517,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -534,7 +534,7 @@
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -580,7 +580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -603,7 +603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -626,7 +626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -649,7 +649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -672,7 +672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
@@ -695,7 +695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -718,7 +718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
@@ -741,7 +741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -764,7 +764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
@@ -787,7 +787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -810,7 +810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -833,7 +833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>49</v>
       </c>
@@ -841,18 +841,21 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>57</v>
       </c>
     </row>

--- a/mobile/src/main/resources/Sanity.xlsx
+++ b/mobile/src/main/resources/Sanity.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="59">
   <si>
     <t>TCID</t>
   </si>
@@ -197,7 +197,10 @@
     <t>wild1_instance</t>
   </si>
   <si>
-    <t>1-10,12-16,20-37,39-43,46-54,56-60,62-63</t>
+    <t>1-10,12-16,20-21,24-31,35-37,39-43,46-54,56-60,62-63</t>
+  </si>
+  <si>
+    <t>1-10,12-14,20-21,24-31,37,39-43,46-54,56-60,62-63</t>
   </si>
 </sst>
 </file>
@@ -853,7 +856,7 @@
         <v>56</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>57</v>
